--- a/학습자료/단답형/오답노트/오답노트_테스트_객관식_조선_전기.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_테스트_객관식_조선_전기.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,12 +499,35 @@
           <t>1435 : 세종</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20221219</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>20221219</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>평시서 설치</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1464 : 세조</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1466 : 세조</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20221220</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>07</t>
         </is>
